--- a/src/logs.xlsx
+++ b/src/logs.xlsx
@@ -558,16 +558,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3036424</v>
+        <v>3036516</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>a8618033-a9b2-41a5-97bf-a2aecabf85fa</t>
+          <t>b1bc3a65-3aa3-41b5-965c-2edcb0d26236</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-09-25 13:29:22</t>
+          <t>2025-09-25 13:40:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -640,16 +640,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3036425</v>
+        <v>3036517</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>a8618033-a9b2-41a5-97bf-a2aecabf85fa</t>
+          <t>b1bc3a65-3aa3-41b5-965c-2edcb0d26236</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-09-25 13:29:22</t>
+          <t>2025-09-25 13:40:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -722,16 +722,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3036426</v>
+        <v>3036518</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>a8618033-a9b2-41a5-97bf-a2aecabf85fa</t>
+          <t>b1bc3a65-3aa3-41b5-965c-2edcb0d26236</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-09-25 13:29:22</t>
+          <t>2025-09-25 13:40:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -804,16 +804,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3036427</v>
+        <v>3036519</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>a8618033-a9b2-41a5-97bf-a2aecabf85fa</t>
+          <t>b1bc3a65-3aa3-41b5-965c-2edcb0d26236</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-09-25 13:29:22</t>
+          <t>2025-09-25 13:40:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -886,16 +886,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3036428</v>
+        <v>3036520</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>a8618033-a9b2-41a5-97bf-a2aecabf85fa</t>
+          <t>b1bc3a65-3aa3-41b5-965c-2edcb0d26236</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-09-25 13:29:22</t>
+          <t>2025-09-25 13:40:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -968,16 +968,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3036429</v>
+        <v>3036521</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>a8618033-a9b2-41a5-97bf-a2aecabf85fa</t>
+          <t>b1bc3a65-3aa3-41b5-965c-2edcb0d26236</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-09-25 13:29:22</t>
+          <t>2025-09-25 13:40:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1028,16 +1028,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3036430</v>
+        <v>3036522</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>a8618033-a9b2-41a5-97bf-a2aecabf85fa</t>
+          <t>b1bc3a65-3aa3-41b5-965c-2edcb0d26236</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-09-25 13:29:22</t>
+          <t>2025-09-25 13:40:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1110,16 +1110,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3036431</v>
+        <v>3036523</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>a8618033-a9b2-41a5-97bf-a2aecabf85fa</t>
+          <t>b1bc3a65-3aa3-41b5-965c-2edcb0d26236</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-09-25 13:29:22</t>
+          <t>2025-09-25 13:40:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1192,16 +1192,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3036432</v>
+        <v>3036524</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>a8618033-a9b2-41a5-97bf-a2aecabf85fa</t>
+          <t>b1bc3a65-3aa3-41b5-965c-2edcb0d26236</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-09-25 13:29:26</t>
+          <t>2025-09-25 13:40:34</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1274,16 +1274,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3036433</v>
+        <v>3036525</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>a8618033-a9b2-41a5-97bf-a2aecabf85fa</t>
+          <t>b1bc3a65-3aa3-41b5-965c-2edcb0d26236</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-09-25 13:29:26</t>
+          <t>2025-09-25 13:40:34</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1356,16 +1356,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3036434</v>
+        <v>3036526</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>a8618033-a9b2-41a5-97bf-a2aecabf85fa</t>
+          <t>b1bc3a65-3aa3-41b5-965c-2edcb0d26236</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-09-25 13:29:26</t>
+          <t>2025-09-25 13:40:34</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1438,16 +1438,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3036435</v>
+        <v>3036527</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>a8618033-a9b2-41a5-97bf-a2aecabf85fa</t>
+          <t>b1bc3a65-3aa3-41b5-965c-2edcb0d26236</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-09-25 13:29:26</t>
+          <t>2025-09-25 13:40:34</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1520,16 +1520,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3036436</v>
+        <v>3036528</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>a8618033-a9b2-41a5-97bf-a2aecabf85fa</t>
+          <t>b1bc3a65-3aa3-41b5-965c-2edcb0d26236</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-09-25 13:29:26</t>
+          <t>2025-09-25 13:40:34</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1602,16 +1602,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3036437</v>
+        <v>3036529</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>a8618033-a9b2-41a5-97bf-a2aecabf85fa</t>
+          <t>b1bc3a65-3aa3-41b5-965c-2edcb0d26236</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-09-25 13:29:26</t>
+          <t>2025-09-25 13:40:34</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1684,16 +1684,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3036438</v>
+        <v>3036530</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>a8618033-a9b2-41a5-97bf-a2aecabf85fa</t>
+          <t>b1bc3a65-3aa3-41b5-965c-2edcb0d26236</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2025-09-25 13:29:26</t>
+          <t>2025-09-25 13:40:34</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1766,16 +1766,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3036439</v>
+        <v>3036531</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>a8618033-a9b2-41a5-97bf-a2aecabf85fa</t>
+          <t>b1bc3a65-3aa3-41b5-965c-2edcb0d26236</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2025-09-25 13:29:26</t>
+          <t>2025-09-25 13:40:34</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1848,16 +1848,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3036440</v>
+        <v>3036532</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>a8618033-a9b2-41a5-97bf-a2aecabf85fa</t>
+          <t>b1bc3a65-3aa3-41b5-965c-2edcb0d26236</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2025-09-25 13:29:26</t>
+          <t>2025-09-25 13:40:34</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1930,16 +1930,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3036441</v>
+        <v>3036533</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>a8618033-a9b2-41a5-97bf-a2aecabf85fa</t>
+          <t>b1bc3a65-3aa3-41b5-965c-2edcb0d26236</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2025-09-25 13:29:26</t>
+          <t>2025-09-25 13:40:34</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2012,16 +2012,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3036442</v>
+        <v>3036534</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>a8618033-a9b2-41a5-97bf-a2aecabf85fa</t>
+          <t>b1bc3a65-3aa3-41b5-965c-2edcb0d26236</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2025-09-25 13:29:26</t>
+          <t>2025-09-25 13:40:34</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2094,16 +2094,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3036443</v>
+        <v>3036535</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>a8618033-a9b2-41a5-97bf-a2aecabf85fa</t>
+          <t>b1bc3a65-3aa3-41b5-965c-2edcb0d26236</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2025-09-25 13:29:26</t>
+          <t>2025-09-25 13:40:34</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2176,16 +2176,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3036444</v>
+        <v>3036536</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>a8618033-a9b2-41a5-97bf-a2aecabf85fa</t>
+          <t>b1bc3a65-3aa3-41b5-965c-2edcb0d26236</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2025-09-25 13:29:26</t>
+          <t>2025-09-25 13:40:34</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2258,16 +2258,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3036445</v>
+        <v>3036537</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>a8618033-a9b2-41a5-97bf-a2aecabf85fa</t>
+          <t>b1bc3a65-3aa3-41b5-965c-2edcb0d26236</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2025-09-25 13:29:26</t>
+          <t>2025-09-25 13:40:34</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2340,16 +2340,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3036446</v>
+        <v>3036538</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>a8618033-a9b2-41a5-97bf-a2aecabf85fa</t>
+          <t>b1bc3a65-3aa3-41b5-965c-2edcb0d26236</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2025-09-25 13:29:26</t>
+          <t>2025-09-25 13:40:34</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2422,16 +2422,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3036447</v>
+        <v>3036539</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>a8618033-a9b2-41a5-97bf-a2aecabf85fa</t>
+          <t>b1bc3a65-3aa3-41b5-965c-2edcb0d26236</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2025-09-25 13:29:26</t>
+          <t>2025-09-25 13:40:34</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2504,16 +2504,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3036448</v>
+        <v>3036540</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>a8618033-a9b2-41a5-97bf-a2aecabf85fa</t>
+          <t>b1bc3a65-3aa3-41b5-965c-2edcb0d26236</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2025-09-25 13:29:26</t>
+          <t>2025-09-25 13:40:34</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2586,16 +2586,16 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3036449</v>
+        <v>3036541</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>a8618033-a9b2-41a5-97bf-a2aecabf85fa</t>
+          <t>b1bc3a65-3aa3-41b5-965c-2edcb0d26236</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2025-09-25 13:29:26</t>
+          <t>2025-09-25 13:40:34</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2668,16 +2668,16 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3036450</v>
+        <v>3036542</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>a8618033-a9b2-41a5-97bf-a2aecabf85fa</t>
+          <t>b1bc3a65-3aa3-41b5-965c-2edcb0d26236</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2025-09-25 13:29:26</t>
+          <t>2025-09-25 13:40:34</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2750,16 +2750,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3036451</v>
+        <v>3036543</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>a8618033-a9b2-41a5-97bf-a2aecabf85fa</t>
+          <t>b1bc3a65-3aa3-41b5-965c-2edcb0d26236</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2025-09-25 13:29:26</t>
+          <t>2025-09-25 13:40:34</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2973,16 +2973,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3036424</v>
+        <v>3036516</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>a8618033-a9b2-41a5-97bf-a2aecabf85fa</t>
+          <t>b1bc3a65-3aa3-41b5-965c-2edcb0d26236</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-09-25 13:29:22</t>
+          <t>2025-09-25 13:40:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -3055,16 +3055,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3036425</v>
+        <v>3036517</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>a8618033-a9b2-41a5-97bf-a2aecabf85fa</t>
+          <t>b1bc3a65-3aa3-41b5-965c-2edcb0d26236</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-09-25 13:29:22</t>
+          <t>2025-09-25 13:40:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -3137,16 +3137,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3036426</v>
+        <v>3036518</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>a8618033-a9b2-41a5-97bf-a2aecabf85fa</t>
+          <t>b1bc3a65-3aa3-41b5-965c-2edcb0d26236</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-09-25 13:29:22</t>
+          <t>2025-09-25 13:40:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -3219,16 +3219,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3036427</v>
+        <v>3036519</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>a8618033-a9b2-41a5-97bf-a2aecabf85fa</t>
+          <t>b1bc3a65-3aa3-41b5-965c-2edcb0d26236</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-09-25 13:29:22</t>
+          <t>2025-09-25 13:40:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -3301,16 +3301,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3036428</v>
+        <v>3036520</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>a8618033-a9b2-41a5-97bf-a2aecabf85fa</t>
+          <t>b1bc3a65-3aa3-41b5-965c-2edcb0d26236</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-09-25 13:29:22</t>
+          <t>2025-09-25 13:40:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -3383,16 +3383,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3036429</v>
+        <v>3036521</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>a8618033-a9b2-41a5-97bf-a2aecabf85fa</t>
+          <t>b1bc3a65-3aa3-41b5-965c-2edcb0d26236</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-09-25 13:29:22</t>
+          <t>2025-09-25 13:40:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -3443,16 +3443,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3036430</v>
+        <v>3036522</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>a8618033-a9b2-41a5-97bf-a2aecabf85fa</t>
+          <t>b1bc3a65-3aa3-41b5-965c-2edcb0d26236</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-09-25 13:29:22</t>
+          <t>2025-09-25 13:40:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -3525,16 +3525,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3036431</v>
+        <v>3036523</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>a8618033-a9b2-41a5-97bf-a2aecabf85fa</t>
+          <t>b1bc3a65-3aa3-41b5-965c-2edcb0d26236</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-09-25 13:29:22</t>
+          <t>2025-09-25 13:40:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -3607,16 +3607,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3036432</v>
+        <v>3036524</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>a8618033-a9b2-41a5-97bf-a2aecabf85fa</t>
+          <t>b1bc3a65-3aa3-41b5-965c-2edcb0d26236</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-09-25 13:29:26</t>
+          <t>2025-09-25 13:40:34</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -3689,16 +3689,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3036433</v>
+        <v>3036525</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>a8618033-a9b2-41a5-97bf-a2aecabf85fa</t>
+          <t>b1bc3a65-3aa3-41b5-965c-2edcb0d26236</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-09-25 13:29:26</t>
+          <t>2025-09-25 13:40:34</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -3771,16 +3771,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3036434</v>
+        <v>3036526</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>a8618033-a9b2-41a5-97bf-a2aecabf85fa</t>
+          <t>b1bc3a65-3aa3-41b5-965c-2edcb0d26236</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-09-25 13:29:26</t>
+          <t>2025-09-25 13:40:34</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -3853,16 +3853,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3036435</v>
+        <v>3036527</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>a8618033-a9b2-41a5-97bf-a2aecabf85fa</t>
+          <t>b1bc3a65-3aa3-41b5-965c-2edcb0d26236</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-09-25 13:29:26</t>
+          <t>2025-09-25 13:40:34</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -3935,16 +3935,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3036436</v>
+        <v>3036528</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>a8618033-a9b2-41a5-97bf-a2aecabf85fa</t>
+          <t>b1bc3a65-3aa3-41b5-965c-2edcb0d26236</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-09-25 13:29:26</t>
+          <t>2025-09-25 13:40:34</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -4017,16 +4017,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3036437</v>
+        <v>3036529</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>a8618033-a9b2-41a5-97bf-a2aecabf85fa</t>
+          <t>b1bc3a65-3aa3-41b5-965c-2edcb0d26236</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-09-25 13:29:26</t>
+          <t>2025-09-25 13:40:34</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -4099,16 +4099,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3036438</v>
+        <v>3036530</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>a8618033-a9b2-41a5-97bf-a2aecabf85fa</t>
+          <t>b1bc3a65-3aa3-41b5-965c-2edcb0d26236</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2025-09-25 13:29:26</t>
+          <t>2025-09-25 13:40:34</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -4181,16 +4181,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3036439</v>
+        <v>3036531</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>a8618033-a9b2-41a5-97bf-a2aecabf85fa</t>
+          <t>b1bc3a65-3aa3-41b5-965c-2edcb0d26236</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2025-09-25 13:29:26</t>
+          <t>2025-09-25 13:40:34</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -4263,16 +4263,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3036440</v>
+        <v>3036532</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>a8618033-a9b2-41a5-97bf-a2aecabf85fa</t>
+          <t>b1bc3a65-3aa3-41b5-965c-2edcb0d26236</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2025-09-25 13:29:26</t>
+          <t>2025-09-25 13:40:34</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -4345,16 +4345,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3036441</v>
+        <v>3036533</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>a8618033-a9b2-41a5-97bf-a2aecabf85fa</t>
+          <t>b1bc3a65-3aa3-41b5-965c-2edcb0d26236</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2025-09-25 13:29:26</t>
+          <t>2025-09-25 13:40:34</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -4427,16 +4427,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3036442</v>
+        <v>3036534</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>a8618033-a9b2-41a5-97bf-a2aecabf85fa</t>
+          <t>b1bc3a65-3aa3-41b5-965c-2edcb0d26236</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2025-09-25 13:29:26</t>
+          <t>2025-09-25 13:40:34</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -4509,16 +4509,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3036443</v>
+        <v>3036535</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>a8618033-a9b2-41a5-97bf-a2aecabf85fa</t>
+          <t>b1bc3a65-3aa3-41b5-965c-2edcb0d26236</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2025-09-25 13:29:26</t>
+          <t>2025-09-25 13:40:34</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -4591,16 +4591,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3036444</v>
+        <v>3036536</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>a8618033-a9b2-41a5-97bf-a2aecabf85fa</t>
+          <t>b1bc3a65-3aa3-41b5-965c-2edcb0d26236</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2025-09-25 13:29:26</t>
+          <t>2025-09-25 13:40:34</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -4673,16 +4673,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3036445</v>
+        <v>3036537</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>a8618033-a9b2-41a5-97bf-a2aecabf85fa</t>
+          <t>b1bc3a65-3aa3-41b5-965c-2edcb0d26236</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2025-09-25 13:29:26</t>
+          <t>2025-09-25 13:40:34</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4755,16 +4755,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3036446</v>
+        <v>3036538</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>a8618033-a9b2-41a5-97bf-a2aecabf85fa</t>
+          <t>b1bc3a65-3aa3-41b5-965c-2edcb0d26236</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2025-09-25 13:29:26</t>
+          <t>2025-09-25 13:40:34</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -4837,16 +4837,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3036447</v>
+        <v>3036539</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>a8618033-a9b2-41a5-97bf-a2aecabf85fa</t>
+          <t>b1bc3a65-3aa3-41b5-965c-2edcb0d26236</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2025-09-25 13:29:26</t>
+          <t>2025-09-25 13:40:34</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -4919,16 +4919,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3036448</v>
+        <v>3036540</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>a8618033-a9b2-41a5-97bf-a2aecabf85fa</t>
+          <t>b1bc3a65-3aa3-41b5-965c-2edcb0d26236</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2025-09-25 13:29:26</t>
+          <t>2025-09-25 13:40:34</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -5001,16 +5001,16 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3036449</v>
+        <v>3036541</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>a8618033-a9b2-41a5-97bf-a2aecabf85fa</t>
+          <t>b1bc3a65-3aa3-41b5-965c-2edcb0d26236</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2025-09-25 13:29:26</t>
+          <t>2025-09-25 13:40:34</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -5083,16 +5083,16 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3036450</v>
+        <v>3036542</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>a8618033-a9b2-41a5-97bf-a2aecabf85fa</t>
+          <t>b1bc3a65-3aa3-41b5-965c-2edcb0d26236</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2025-09-25 13:29:26</t>
+          <t>2025-09-25 13:40:34</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -5165,16 +5165,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3036451</v>
+        <v>3036543</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>a8618033-a9b2-41a5-97bf-a2aecabf85fa</t>
+          <t>b1bc3a65-3aa3-41b5-965c-2edcb0d26236</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2025-09-25 13:29:26</t>
+          <t>2025-09-25 13:40:34</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">

--- a/src/logs.xlsx
+++ b/src/logs.xlsx
@@ -528,16 +528,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3185230</v>
+        <v>3185233</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7ff7cc61-83aa-4ac6-9102-e77dd1a4ee11</t>
+          <t>1186c09b-161f-4e81-822a-69e549f820f8</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-10-03 13:15:22</t>
+          <t>2025-10-04 08:26:58</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -567,7 +567,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>No valid KO PDF (stage=5) for class</t>
+          <t>KO PDF parsing failed: 'top'</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -578,7 +578,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>F14</t>
+          <t>M1150</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -593,12 +593,12 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>24891</t>
+          <t>24892</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>30044</t>
+          <t>30021</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -723,16 +723,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3185230</v>
+        <v>3185233</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7ff7cc61-83aa-4ac6-9102-e77dd1a4ee11</t>
+          <t>1186c09b-161f-4e81-822a-69e549f820f8</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-10-03 13:15:22</t>
+          <t>2025-10-04 08:26:58</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -762,7 +762,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>No valid KO PDF (stage=5) for class</t>
+          <t>KO PDF parsing failed: 'top'</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -773,7 +773,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>F14</t>
+          <t>M1150</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -788,12 +788,12 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>24891</t>
+          <t>24892</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>30044</t>
+          <t>30021</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">

--- a/src/logs.xlsx
+++ b/src/logs.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="All_Logs" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Warning" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Error" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,168 +487,218 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>class_idx</t>
+          <t>tournament_class_id_ext</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>tournament</t>
+          <t>match_id_ext</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>tournament_id</t>
+          <t>group_id_ext</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>tournament_id_ext</t>
+          <t>s1_fullname_raw</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>tournament_class_id</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>tournament_class_id_ext</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>stage</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>missing_players</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>tokens_not_attached</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>missing_score_for_match</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>duplicate_players_in_first_round</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>inconsistent_best_of_in_round</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>misc_validation_issues</t>
+          <t>s2_fullname_raw</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3274599</v>
+        <v>3411295</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>de0d86dd-1b1a-4e9d-9557-b2a6b3295567</t>
+          <t>b41b63c7-1f29-452a-b999-940bf4ef375f</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-11-04 15:42:11</t>
+          <t>2025-11-07 13:31:38</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>tournament_class_match_raw</t>
+          <t>match</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>scrape</t>
+          <t>resolve</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>_validate_bracket</t>
+          <t>resolve_tournament_class_matches</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>scrape_tournament_class_knockout_matches_ondata.py</t>
+          <t>resolve_tournament_class_matches.py</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>warning</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>One or more score token(s) were not attached to any match.</t>
+          <t>Class matches resolved with failures</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>1/1</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>DS</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>119</t>
-        </is>
-      </c>
+          <t>30527</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
-          <t>000043</t>
+          <t>Grawsiö Wallin Adam</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>936</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>1006</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>2013-03-01</t>
-        </is>
-      </c>
-      <c r="R2" t="n">
-        <v>5</v>
-      </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>x=541.2 y=416.6 (6, 7, 8, 5)</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
+          <t>Wigelius Aron</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3411296</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>b41b63c7-1f29-452a-b999-940bf4ef375f</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2025-11-07 13:31:38</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>match</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>resolve</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>resolve_tournament_class_matches</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>resolve_tournament_class_matches.py</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Class matches resolved with failures</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>30743</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Karlsson Loke</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Hansson Martin</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3411297</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>b41b63c7-1f29-452a-b999-940bf4ef375f</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2025-11-07 13:31:40</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>match</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>resolve</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>resolve_tournament_class_matches</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>resolve_tournament_class_matches.py</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Class matches resolved with failures</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>31001</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Team DKSS Latvia</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Team Täby/Stocksund .</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -661,7 +711,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,168 +772,218 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>class_idx</t>
+          <t>tournament_class_id_ext</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>tournament</t>
+          <t>match_id_ext</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>tournament_id</t>
+          <t>group_id_ext</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>tournament_id_ext</t>
+          <t>s1_fullname_raw</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>tournament_class_id</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>tournament_class_id_ext</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>stage</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>missing_players</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>tokens_not_attached</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>missing_score_for_match</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>duplicate_players_in_first_round</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>inconsistent_best_of_in_round</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>misc_validation_issues</t>
+          <t>s2_fullname_raw</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3274599</v>
+        <v>3411295</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>de0d86dd-1b1a-4e9d-9557-b2a6b3295567</t>
+          <t>b41b63c7-1f29-452a-b999-940bf4ef375f</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-11-04 15:42:11</t>
+          <t>2025-11-07 13:31:38</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>tournament_class_match_raw</t>
+          <t>match</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>scrape</t>
+          <t>resolve</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>_validate_bracket</t>
+          <t>resolve_tournament_class_matches</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>scrape_tournament_class_knockout_matches_ondata.py</t>
+          <t>resolve_tournament_class_matches.py</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>warning</t>
+          <t>error</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>One or more score token(s) were not attached to any match.</t>
+          <t>Class matches resolved with failures</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>1/1</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>DS</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>119</t>
-        </is>
-      </c>
+          <t>30527</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
-          <t>000043</t>
+          <t>Grawsiö Wallin Adam</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>936</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>1006</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>2013-03-01</t>
-        </is>
-      </c>
-      <c r="R2" t="n">
-        <v>5</v>
-      </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>x=541.2 y=416.6 (6, 7, 8, 5)</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
+          <t>Wigelius Aron</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3411296</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>b41b63c7-1f29-452a-b999-940bf4ef375f</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2025-11-07 13:31:38</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>match</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>resolve</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>resolve_tournament_class_matches</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>resolve_tournament_class_matches.py</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Class matches resolved with failures</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>30743</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Karlsson Loke</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Hansson Martin</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3411297</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>b41b63c7-1f29-452a-b999-940bf4ef375f</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2025-11-07 13:31:40</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>match</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>resolve</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>resolve_tournament_class_matches</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>resolve_tournament_class_matches.py</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Class matches resolved with failures</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>31001</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Team DKSS Latvia</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Team Täby/Stocksund .</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
